--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.62966433333333</v>
+        <v>22.628972</v>
       </c>
       <c r="H2">
-        <v>64.888993</v>
+        <v>67.886916</v>
       </c>
       <c r="I2">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="J2">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N2">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O2">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P2">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q2">
-        <v>13.38022571480978</v>
+        <v>7.604616900413334</v>
       </c>
       <c r="R2">
-        <v>120.422031433288</v>
+        <v>68.44155210372</v>
       </c>
       <c r="S2">
-        <v>0.00023819978975726</v>
+        <v>6.868975221017135E-05</v>
       </c>
       <c r="T2">
-        <v>0.00023819978975726</v>
+        <v>6.868975221017135E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.62966433333333</v>
+        <v>22.628972</v>
       </c>
       <c r="H3">
-        <v>64.888993</v>
+        <v>67.886916</v>
       </c>
       <c r="I3">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="J3">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.015866</v>
       </c>
       <c r="O3">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P3">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q3">
-        <v>50.58360886254867</v>
+        <v>52.920611756584</v>
       </c>
       <c r="R3">
-        <v>455.252479762938</v>
+        <v>476.285505809256</v>
       </c>
       <c r="S3">
-        <v>0.0009005083511323906</v>
+        <v>0.0004780127330507416</v>
       </c>
       <c r="T3">
-        <v>0.0009005083511323906</v>
+        <v>0.0004780127330507415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.62966433333333</v>
+        <v>22.628972</v>
       </c>
       <c r="H4">
-        <v>64.888993</v>
+        <v>67.886916</v>
       </c>
       <c r="I4">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="J4">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N4">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O4">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P4">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q4">
-        <v>172.7041817864928</v>
+        <v>418.4519179417521</v>
       </c>
       <c r="R4">
-        <v>1554.337636078435</v>
+        <v>3766.067261475768</v>
       </c>
       <c r="S4">
-        <v>0.003074544530755477</v>
+        <v>0.003779724729292756</v>
       </c>
       <c r="T4">
-        <v>0.003074544530755477</v>
+        <v>0.003779724729292756</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.62966433333333</v>
+        <v>22.628972</v>
       </c>
       <c r="H5">
-        <v>64.888993</v>
+        <v>67.886916</v>
       </c>
       <c r="I5">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="J5">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N5">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O5">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P5">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q5">
-        <v>3.575686329600666</v>
+        <v>5.126261715010666</v>
       </c>
       <c r="R5">
-        <v>32.181176966406</v>
+        <v>46.13635543509599</v>
       </c>
       <c r="S5">
-        <v>6.365570731785641E-05</v>
+        <v>4.630366678292918E-05</v>
       </c>
       <c r="T5">
-        <v>6.365570731785643E-05</v>
+        <v>4.630366678292918E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14901.053223</v>
       </c>
       <c r="I6">
-        <v>0.9821456064948035</v>
+        <v>0.9598063873258337</v>
       </c>
       <c r="J6">
-        <v>0.9821456064948036</v>
+        <v>0.9598063873258338</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N6">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O6">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P6">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q6">
-        <v>3072.623665343885</v>
+        <v>1669.199425314657</v>
       </c>
       <c r="R6">
-        <v>27653.61298809497</v>
+        <v>15022.79482783191</v>
       </c>
       <c r="S6">
-        <v>0.05469999734593417</v>
+        <v>0.01507727429477641</v>
       </c>
       <c r="T6">
-        <v>0.05469999734593418</v>
+        <v>0.01507727429477641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14901.053223</v>
       </c>
       <c r="I7">
-        <v>0.9821456064948035</v>
+        <v>0.9598063873258337</v>
       </c>
       <c r="J7">
-        <v>0.9821456064948036</v>
+        <v>0.9598063873258338</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.015866</v>
       </c>
       <c r="O7">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P7">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q7">
         <v>11615.9769634929</v>
@@ -883,10 +883,10 @@
         <v>104543.7926714361</v>
       </c>
       <c r="S7">
-        <v>0.2067919726844847</v>
+        <v>0.1049229158746995</v>
       </c>
       <c r="T7">
-        <v>0.2067919726844848</v>
+        <v>0.1049229158746995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14901.053223</v>
       </c>
       <c r="I8">
-        <v>0.9821456064948035</v>
+        <v>0.9598063873258337</v>
       </c>
       <c r="J8">
-        <v>0.9821456064948036</v>
+        <v>0.9598063873258338</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N8">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O8">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P8">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q8">
-        <v>39659.6415764257</v>
+        <v>91849.4264861947</v>
       </c>
       <c r="R8">
-        <v>356936.7741878313</v>
+        <v>826644.8383757523</v>
       </c>
       <c r="S8">
-        <v>0.7060357939176358</v>
+        <v>0.8296426274465114</v>
       </c>
       <c r="T8">
-        <v>0.7060357939176359</v>
+        <v>0.8296426274465115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14901.053223</v>
       </c>
       <c r="I9">
-        <v>0.9821456064948035</v>
+        <v>0.9598063873258337</v>
       </c>
       <c r="J9">
-        <v>0.9821456064948036</v>
+        <v>0.9598063873258338</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N9">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O9">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P9">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q9">
-        <v>821.1175708356739</v>
+        <v>1125.205019630015</v>
       </c>
       <c r="R9">
-        <v>7390.058137521065</v>
+        <v>10126.84517667014</v>
       </c>
       <c r="S9">
-        <v>0.01461784254674886</v>
+        <v>0.01016356970984637</v>
       </c>
       <c r="T9">
-        <v>0.01461784254674886</v>
+        <v>0.01016356970984637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>66.41617433333334</v>
+        <v>182.6322073333333</v>
       </c>
       <c r="H10">
-        <v>199.248523</v>
+        <v>547.896622</v>
       </c>
       <c r="I10">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="J10">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N10">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O10">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P10">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q10">
-        <v>41.08539966219645</v>
+        <v>61.37477082241556</v>
       </c>
       <c r="R10">
-        <v>369.768596959768</v>
+        <v>552.3729374017399</v>
       </c>
       <c r="S10">
-        <v>0.0007314176733802078</v>
+        <v>0.0005543760921761406</v>
       </c>
       <c r="T10">
-        <v>0.0007314176733802079</v>
+        <v>0.0005543760921761406</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>66.41617433333334</v>
+        <v>182.6322073333333</v>
       </c>
       <c r="H11">
-        <v>199.248523</v>
+        <v>547.896622</v>
       </c>
       <c r="I11">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="J11">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.015866</v>
       </c>
       <c r="O11">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P11">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q11">
-        <v>155.3223264517687</v>
+        <v>427.1076979782947</v>
       </c>
       <c r="R11">
-        <v>1397.900938065918</v>
+        <v>3843.969281804652</v>
       </c>
       <c r="S11">
-        <v>0.002765106231688543</v>
+        <v>0.003857909257676236</v>
       </c>
       <c r="T11">
-        <v>0.002765106231688543</v>
+        <v>0.003857909257676236</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>66.41617433333334</v>
+        <v>182.6322073333333</v>
       </c>
       <c r="H12">
-        <v>199.248523</v>
+        <v>547.896622</v>
       </c>
       <c r="I12">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="J12">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N12">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O12">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P12">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q12">
-        <v>530.3064748883096</v>
+        <v>3377.210305292218</v>
       </c>
       <c r="R12">
-        <v>4772.758273994786</v>
+        <v>30394.89274762996</v>
       </c>
       <c r="S12">
-        <v>0.009440714492992006</v>
+        <v>0.0305051184129408</v>
       </c>
       <c r="T12">
-        <v>0.009440714492992008</v>
+        <v>0.0305051184129408</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>66.41617433333334</v>
+        <v>182.6322073333333</v>
       </c>
       <c r="H13">
-        <v>199.248523</v>
+        <v>547.896622</v>
       </c>
       <c r="I13">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="J13">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N13">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O13">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P13">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q13">
-        <v>10.97952344374067</v>
+        <v>41.37264796565911</v>
       </c>
       <c r="R13">
-        <v>98.81571099366602</v>
+        <v>372.3538316909319</v>
       </c>
       <c r="S13">
-        <v>0.0001954615887413014</v>
+        <v>0.0003737041555486259</v>
       </c>
       <c r="T13">
-        <v>0.0001954615887413014</v>
+        <v>0.0003737041555486259</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.249417666666667</v>
+        <v>2.741590666666667</v>
       </c>
       <c r="H14">
-        <v>6.748253</v>
+        <v>8.224772</v>
       </c>
       <c r="I14">
-        <v>0.0004447851394313067</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="J14">
-        <v>0.0004447851394313068</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N14">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O14">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P14">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q14">
-        <v>1.391501765494222</v>
+        <v>0.9213298208044445</v>
       </c>
       <c r="R14">
-        <v>12.523515889448</v>
+        <v>8.291968387239999</v>
       </c>
       <c r="S14">
-        <v>2.477203561825653E-05</v>
+        <v>8.322038825053645E-06</v>
       </c>
       <c r="T14">
-        <v>2.477203561825654E-05</v>
+        <v>8.322038825053645E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.249417666666667</v>
+        <v>2.741590666666667</v>
       </c>
       <c r="H15">
-        <v>6.748253</v>
+        <v>8.224772</v>
       </c>
       <c r="I15">
-        <v>0.0004447851394313067</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="J15">
-        <v>0.0004447851394313068</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.015866</v>
       </c>
       <c r="O15">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P15">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q15">
-        <v>5.260537642455333</v>
+        <v>6.411544248061333</v>
       </c>
       <c r="R15">
-        <v>47.344838782098</v>
+        <v>57.703898232552</v>
       </c>
       <c r="S15">
-        <v>9.365006145270596E-05</v>
+        <v>5.791315873649664E-05</v>
       </c>
       <c r="T15">
-        <v>9.365006145270597E-05</v>
+        <v>5.791315873649663E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.249417666666667</v>
+        <v>2.741590666666667</v>
       </c>
       <c r="H16">
-        <v>6.748253</v>
+        <v>8.224772</v>
       </c>
       <c r="I16">
-        <v>0.0004447851394313067</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="J16">
-        <v>0.0004447851394313068</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N16">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O16">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P16">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q16">
-        <v>17.96069655223722</v>
+        <v>50.69712723485068</v>
       </c>
       <c r="R16">
-        <v>161.646268970135</v>
+        <v>456.274145113656</v>
       </c>
       <c r="S16">
-        <v>0.0003197430472268885</v>
+        <v>0.0004579288020860255</v>
       </c>
       <c r="T16">
-        <v>0.0003197430472268885</v>
+        <v>0.0004579288020860255</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.249417666666667</v>
+        <v>2.741590666666667</v>
       </c>
       <c r="H17">
-        <v>6.748253</v>
+        <v>8.224772</v>
       </c>
       <c r="I17">
-        <v>0.0004447851394313067</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="J17">
-        <v>0.0004447851394313068</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N17">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O17">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P17">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q17">
-        <v>0.3718602321473333</v>
+        <v>0.6210671555368888</v>
       </c>
       <c r="R17">
-        <v>3.346742089326</v>
+        <v>5.589604399831999</v>
       </c>
       <c r="S17">
-        <v>6.619995133455784E-06</v>
+        <v>5.609874840294203E-06</v>
       </c>
       <c r="T17">
-        <v>6.619995133455786E-06</v>
+        <v>5.609874840294203E-06</v>
       </c>
     </row>
   </sheetData>
